--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_33.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2972820.404626348</v>
+        <v>2991195.094092468</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800623</v>
       </c>
     </row>
     <row r="8">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>90.03590933848095</v>
       </c>
       <c r="I2" t="n">
-        <v>141.6783258114064</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>54.47872210664396</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>189.5968436493441</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>177.4339484441091</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>337.7702698026803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1096,31 +1096,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>53.80100608808073</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>129.1156685069344</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>282.0494189334207</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>137.6226750441174</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>56.49576810820431</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722633</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274081</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,16 +1421,16 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>32.58362141034402</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>82.47437332366414</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274067</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,13 +1774,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>90.48873556394399</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1825,10 +1825,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>97.68000121430563</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274066</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>54.99675100248641</v>
+        <v>135.5947476878515</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274066</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,10 +2132,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498009</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>90.33572985766527</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,22 +2290,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065123</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>70.90294072354719</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,16 +2524,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>118.4898845065123</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>121.4557673726583</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>78.46129407658275</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>170.9263834540437</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>27.55584844405809</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>82.21550787668808</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,22 +3472,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>161.6255032160666</v>
       </c>
       <c r="W37" t="n">
-        <v>202.4420839239447</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,13 +3554,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>206.8064269214864</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>9.287915044372703</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,19 +3898,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>129.5201025231094</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3980,7 +3980,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>150.438295454403</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>174.3062600431781</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1272.344242153658</v>
+        <v>1882.054803223514</v>
       </c>
       <c r="C2" t="n">
-        <v>903.3817252132462</v>
+        <v>1513.092286283102</v>
       </c>
       <c r="D2" t="n">
-        <v>545.1160266064958</v>
+        <v>1513.092286283102</v>
       </c>
       <c r="E2" t="n">
-        <v>545.1160266064958</v>
+        <v>1127.304033684858</v>
       </c>
       <c r="F2" t="n">
-        <v>538.1705258572923</v>
+        <v>716.3181288952505</v>
       </c>
       <c r="G2" t="n">
-        <v>524.2471217958832</v>
+        <v>298.3543207934374</v>
       </c>
       <c r="H2" t="n">
-        <v>197.0524018318861</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.344242153658</v>
+        <v>2268.654643287636</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4416,22 +4416,22 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6285184821634</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6285184821634</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6285184821634</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6285184821634</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6285184821634</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6285184821634</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6285184821634</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005476</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124031</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1146.060557799969</v>
+        <v>1542.779601230298</v>
       </c>
       <c r="C5" t="n">
-        <v>1146.060557799969</v>
+        <v>1542.779601230298</v>
       </c>
       <c r="D5" t="n">
-        <v>787.7948591932184</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>402.0066065949742</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4601,16 +4601,16 @@
         <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834948</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X5" t="n">
-        <v>1873.842488573869</v>
+        <v>1542.779601230298</v>
       </c>
       <c r="Y5" t="n">
-        <v>1532.660397864091</v>
+        <v>1542.779601230298</v>
       </c>
     </row>
     <row r="6">
@@ -4644,16 +4644,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4744,28 +4744,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y7" t="n">
         <v>53.94298182036445</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1206.080506218543</v>
+        <v>1757.366513095501</v>
       </c>
       <c r="C8" t="n">
-        <v>837.1179892781316</v>
+        <v>1757.366513095501</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>1399.100814488751</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>1013.312561890507</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>602.3266571008992</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>184.3628489990861</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>184.3628489990861</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157406</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W8" t="n">
-        <v>1596.219838194355</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X8" t="n">
-        <v>1596.219838194355</v>
+        <v>2147.505845071313</v>
       </c>
       <c r="Y8" t="n">
-        <v>1206.080506218543</v>
+        <v>1757.366513095501</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>361.80799380017</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>365.6939024587809</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="U10" t="n">
-        <v>308.6274700262513</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>500.8207968750361</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823787</v>
@@ -5054,37 +5054,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L12" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M12" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O12" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>557.490562163493</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C13" t="n">
-        <v>388.5543792355861</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>388.5543792355861</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>388.5543792355861</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>241.6644317376758</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>241.6644317376758</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V13" t="n">
-        <v>1187.92115703528</v>
+        <v>820.5263570570741</v>
       </c>
       <c r="W13" t="n">
-        <v>1187.92115703528</v>
+        <v>531.1091870201135</v>
       </c>
       <c r="X13" t="n">
-        <v>959.9316061372629</v>
+        <v>531.1091870201135</v>
       </c>
       <c r="Y13" t="n">
-        <v>739.1390269937327</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514078</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395485</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>489.1545025205813</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C16" t="n">
-        <v>489.1545025205813</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D16" t="n">
-        <v>339.0378631082456</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>339.0378631082456</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U16" t="n">
-        <v>898.7925182488384</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V16" t="n">
-        <v>898.7925182488384</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="W16" t="n">
-        <v>898.7925182488384</v>
+        <v>696.5850465240062</v>
       </c>
       <c r="X16" t="n">
-        <v>670.8029673508211</v>
+        <v>597.9183786307682</v>
       </c>
       <c r="Y16" t="n">
-        <v>670.8029673508211</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028587</v>
@@ -5516,49 +5516,49 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>413.0432218861031</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028587</v>
@@ -5671,7 +5671,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
@@ -5680,7 +5680,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="V19" t="n">
-        <v>986.0022165609664</v>
+        <v>933.2366688293938</v>
       </c>
       <c r="W19" t="n">
-        <v>696.5850465240057</v>
+        <v>643.8194987924333</v>
       </c>
       <c r="X19" t="n">
-        <v>468.5954956259884</v>
+        <v>415.8299478944159</v>
       </c>
       <c r="Y19" t="n">
-        <v>413.0432218861031</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5741,37 +5741,37 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>485.5200852635876</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>804.0652204802078</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>804.0652204802078</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>653.9485810678721</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>653.9485810678721</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>507.0586335699617</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>338.8833118897822</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>188.4653034377255</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
@@ -5917,7 +5917,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U22" t="n">
-        <v>1275.130855347408</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>1275.130855347408</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>985.7136853104475</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>985.7136853104475</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>985.7136853104475</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5984,7 +5984,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
@@ -6002,16 +6002,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>709.4934589365139</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M24" t="n">
-        <v>1016.813592216476</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>1346.676219880508</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183168</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>337.0115451844523</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C25" t="n">
-        <v>337.0115451844523</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D25" t="n">
-        <v>337.0115451844523</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E25" t="n">
-        <v>337.0115451844523</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U25" t="n">
-        <v>1075.21084526296</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>1075.21084526296</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>785.7936752259998</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>557.8041243279824</v>
+        <v>318.009670603816</v>
       </c>
       <c r="Y25" t="n">
-        <v>337.0115451844523</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6233,28 +6233,28 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6291,13 +6291,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
@@ -6306,19 +6306,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
         <v>97.21709146028584</v>
@@ -6388,10 +6388,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1376.233677252187</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1376.233677252187</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1087.105038465745</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>1087.105038465745</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>797.6878684287846</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>797.6878684287846</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>576.8952892852544</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6437,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
         <v>904.3190116155888</v>
@@ -6455,28 +6455,28 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899128</v>
@@ -6485,28 +6485,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>245.130185042679</v>
+        <v>582.2416896507654</v>
       </c>
       <c r="C31" t="n">
-        <v>245.130185042679</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D31" t="n">
-        <v>245.130185042679</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6637,34 +6637,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1419.662438157314</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1419.662438157314</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1419.662438157314</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>1419.662438157314</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V31" t="n">
-        <v>1164.977949951427</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W31" t="n">
-        <v>875.5607799144661</v>
+        <v>754.8946022306075</v>
       </c>
       <c r="X31" t="n">
-        <v>647.5712290164488</v>
+        <v>582.2416896507654</v>
       </c>
       <c r="Y31" t="n">
-        <v>426.7786498729187</v>
+        <v>582.2416896507654</v>
       </c>
     </row>
     <row r="32">
@@ -6713,13 +6713,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6765,37 +6765,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.043068977054</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>2279.445761859783</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.3055067228584</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C34" t="n">
-        <v>413.3055067228584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D34" t="n">
-        <v>413.3055067228584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6862,10 +6862,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6874,34 +6874,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1471.082080210369</v>
       </c>
       <c r="T34" t="n">
-        <v>1187.92115703528</v>
+        <v>1247.296664999875</v>
       </c>
       <c r="U34" t="n">
-        <v>898.7925182488384</v>
+        <v>958.1680262134333</v>
       </c>
       <c r="V34" t="n">
-        <v>815.7465506966282</v>
+        <v>703.4835380075465</v>
       </c>
       <c r="W34" t="n">
-        <v>815.7465506966282</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="X34" t="n">
-        <v>815.7465506966282</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="Y34" t="n">
-        <v>594.9539715530981</v>
+        <v>414.0663679705859</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3757.185126911404</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C37" t="n">
-        <v>3757.185126911404</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D37" t="n">
-        <v>3607.068487499068</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E37" t="n">
-        <v>3459.155393916675</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916675</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916675</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T37" t="n">
-        <v>4437.14914771935</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U37" t="n">
-        <v>4437.14914771935</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V37" t="n">
-        <v>4182.464659513464</v>
+        <v>1335.65818650127</v>
       </c>
       <c r="W37" t="n">
-        <v>3977.977706054934</v>
+        <v>1046.241016464309</v>
       </c>
       <c r="X37" t="n">
-        <v>3977.977706054934</v>
+        <v>818.2514655662918</v>
       </c>
       <c r="Y37" t="n">
-        <v>3757.185126911404</v>
+        <v>597.4588864227617</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,13 +7160,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7187,34 +7187,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7239,13 +7239,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
@@ -7254,22 +7254,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L39" t="n">
-        <v>901.674922584592</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M39" t="n">
-        <v>1208.995055864554</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N39" t="n">
-        <v>1538.857683528586</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O39" t="n">
-        <v>2208.321444831246</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4334.96385716733</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>4166.027674239424</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>4015.911034827087</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>3867.997941244694</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>4749.779469576118</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>4525.994054365623</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U40" t="n">
-        <v>4525.994054365623</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V40" t="n">
-        <v>4525.994054365623</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W40" t="n">
-        <v>4525.994054365623</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X40" t="n">
-        <v>4516.61232199757</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
-        <v>4516.61232199757</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7397,13 +7397,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7424,34 +7424,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7476,13 +7476,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7491,19 +7491,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4077.211924324076</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>3908.275741396169</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>3758.159101983833</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>3758.159101983833</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>3627.330715596854</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>4749.779469576118</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>4525.994054365623</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U43" t="n">
-        <v>4525.994054365623</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>4525.994054365623</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>4525.994054365623</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>4298.004503467606</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>4077.211924324076</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7646,13 +7646,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7661,13 +7661,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7682,16 +7682,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7713,37 +7713,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>413.0432218861031</v>
+        <v>4503.139178847509</v>
       </c>
       <c r="C46" t="n">
-        <v>244.1070389581962</v>
+        <v>4334.202995919602</v>
       </c>
       <c r="D46" t="n">
-        <v>244.1070389581962</v>
+        <v>4184.086356507267</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>4036.173262924874</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N46" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U46" t="n">
-        <v>1075.21084526296</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V46" t="n">
-        <v>923.2529710665938</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="W46" t="n">
-        <v>633.8358010296332</v>
+        <v>4684.787643677749</v>
       </c>
       <c r="X46" t="n">
-        <v>633.8358010296332</v>
+        <v>4684.787643677749</v>
       </c>
       <c r="Y46" t="n">
-        <v>413.0432218861031</v>
+        <v>4684.787643677749</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,10 +8301,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8711,7 +8711,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>253.7371603504737</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,13 +9006,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>96.03744927814625</v>
       </c>
       <c r="M15" t="n">
-        <v>308.1251096272033</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119852</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>253.7371603504737</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>199.7396287231155</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>176.7176547498449</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,16 +9729,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>288.4091825776749</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,16 +10425,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>52.49733361305249</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>124.3400780863226</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10908,22 +10908,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>308.1251096272028</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>124.3400780863231</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11078,7 +11078,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.314990659903</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11148,19 +11148,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>288.4091825776749</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3302069571921</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>136.1102800284307</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,13 +23662,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>54.93231245898725</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>128.0296541747315</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,7 +23899,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>163.5879023496084</v>
+        <v>82.98990566424334</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>20.08351560660671</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,22 +24178,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>103.0576765518769</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24373,10 +24373,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>74.51810729938406</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24412,16 +24412,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>79.43092547709092</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24649,25 +24649,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>76.46504261094491</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>31.50305832721004</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>54.78327193499348</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,10 +25072,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25120,28 +25120,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>170.3649615395452</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>169.9221354471399</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,25 +25309,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25360,22 +25360,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>90.51214010776141</v>
       </c>
       <c r="W37" t="n">
-        <v>84.08091441264628</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25594,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>79.43092547709094</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>216.4217403446644</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,19 +25786,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>15.90094549982183</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25831,28 +25831,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,25 +26071,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>101.699347869425</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>112.2167382934129</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>751919.512376488</v>
+        <v>751919.5123764878</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>751919.5123764881</v>
+        <v>751919.512376488</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>751919.5123764881</v>
+        <v>751919.512376488</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>751919.5123764882</v>
+        <v>751919.512376488</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>751919.5123764881</v>
+        <v>751919.5123764878</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>751919.5123764881</v>
+        <v>751919.512376488</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>751919.5123764882</v>
+        <v>751919.512376488</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>751919.5123764882</v>
+        <v>751919.512376488</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>751919.5123764881</v>
+        <v>751919.512376488</v>
       </c>
     </row>
   </sheetData>
@@ -26314,25 +26314,25 @@
         <v>677359.4601380334</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380331</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380335</v>
       </c>
       <c r="E2" t="n">
+        <v>645197.9485672192</v>
+      </c>
+      <c r="F2" t="n">
+        <v>645197.9485672192</v>
+      </c>
+      <c r="G2" t="n">
+        <v>645197.9485672197</v>
+      </c>
+      <c r="H2" t="n">
+        <v>645197.9485672195</v>
+      </c>
+      <c r="I2" t="n">
         <v>645197.9485672194</v>
-      </c>
-      <c r="F2" t="n">
-        <v>645197.9485672193</v>
-      </c>
-      <c r="G2" t="n">
-        <v>645197.9485672193</v>
-      </c>
-      <c r="H2" t="n">
-        <v>645197.9485672194</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645197.9485672193</v>
       </c>
       <c r="J2" t="n">
         <v>645197.9485672197</v>
@@ -26341,19 +26341,19 @@
         <v>645197.9485672195</v>
       </c>
       <c r="L2" t="n">
-        <v>645197.9485672192</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="M2" t="n">
         <v>645197.9485672195</v>
       </c>
       <c r="N2" t="n">
-        <v>645197.9485672197</v>
+        <v>645197.9485672193</v>
       </c>
       <c r="O2" t="n">
         <v>645197.9485672195</v>
       </c>
       <c r="P2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.948567219</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
-        <v>6.002665031701325e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
-        <v>6.002665031701325e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230224</v>
       </c>
       <c r="F4" t="n">
-        <v>31338.36479029926</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="G4" t="n">
-        <v>31338.36479029927</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>31338.36479029918</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230226</v>
       </c>
       <c r="J4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="K4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230229</v>
       </c>
       <c r="L4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="M4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230226</v>
       </c>
       <c r="N4" t="n">
-        <v>31338.36479029926</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="O4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="P4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230232</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871665</v>
@@ -26488,19 +26488,19 @@
         <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-172486.5956251891</v>
+        <v>-169958.2744617468</v>
       </c>
       <c r="C6" t="n">
-        <v>417481.2835893552</v>
+        <v>420009.6047527977</v>
       </c>
       <c r="D6" t="n">
-        <v>417481.2835893555</v>
+        <v>420009.6047527978</v>
       </c>
       <c r="E6" t="n">
-        <v>-3287.778648692562</v>
+        <v>-1252.959410695941</v>
       </c>
       <c r="F6" t="n">
-        <v>521872.2578282034</v>
+        <v>523907.0770662003</v>
       </c>
       <c r="G6" t="n">
-        <v>521872.2578282033</v>
+        <v>523907.0770662007</v>
       </c>
       <c r="H6" t="n">
-        <v>521872.2578282036</v>
+        <v>523907.0770662006</v>
       </c>
       <c r="I6" t="n">
-        <v>521872.2578282036</v>
+        <v>523907.0770662005</v>
       </c>
       <c r="J6" t="n">
-        <v>345449.038635611</v>
+        <v>347483.8578736079</v>
       </c>
       <c r="K6" t="n">
-        <v>521872.2578282036</v>
+        <v>523907.0770662006</v>
       </c>
       <c r="L6" t="n">
-        <v>521872.2578282034</v>
+        <v>523907.0770662006</v>
       </c>
       <c r="M6" t="n">
-        <v>387071.2425943665</v>
+        <v>389106.0618323633</v>
       </c>
       <c r="N6" t="n">
-        <v>521872.2578282038</v>
+        <v>523907.0770662005</v>
       </c>
       <c r="O6" t="n">
-        <v>521872.2578282037</v>
+        <v>523907.0770662007</v>
       </c>
       <c r="P6" t="n">
-        <v>521872.2578282036</v>
+        <v>523907.0770662001</v>
       </c>
     </row>
   </sheetData>
@@ -26695,13 +26695,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26719,10 +26719,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26744,40 +26744,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26808,19 +26808,19 @@
         <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545551</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>233.8868634258762</v>
       </c>
       <c r="I2" t="n">
-        <v>10.25299043345484</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>80.48689968569427</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,13 +27594,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>96.92615468724691</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>177.2490931765738</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,7 +27673,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>48.46766885337331</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27816,31 +27816,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>232.480868153897</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>63.37316471551392</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>22.81564773792687</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27907,16 +27907,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>67.19154978399229</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>29.62414605451045</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,7 +28026,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
@@ -28056,19 +28056,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>229.7861061337734</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,13 +28849,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-6.999253408739507e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -31753,7 +31753,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,31 +31762,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31835,31 +31835,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,7 +31926,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31938,19 +31938,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,7 +31990,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,31 +31999,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32072,31 +32072,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,7 +32163,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32175,19 +32175,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32227,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32236,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32400,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33731,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33895,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33968,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34132,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34205,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34296,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34360,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34369,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,31 +34442,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34533,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34784,7 +34784,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,10 +35021,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35267,10 +35267,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,22 +35413,22 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
         <v>59.82538970349766</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980129</v>
@@ -35504,10 +35504,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>460.8305752819984</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,25 +35650,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>345.2951542341706</v>
       </c>
       <c r="M15" t="n">
-        <v>618.5494866776696</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
@@ -35741,7 +35741,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,25 +35887,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081129</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>536.1008625915819</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>350.3150673110547</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36215,10 +36215,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>425.9753597058693</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>570.772884818783</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37008,7 +37008,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37163,10 +37163,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>259.5907485445772</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37245,7 +37245,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,25 +37309,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>457.5346514843356</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37482,7 +37482,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,25 +37546,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>618.5494866776692</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>331.4334930178478</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37719,7 +37719,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,25 +37783,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502032</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>621.6037559756878</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,19 +37935,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37956,7 +37956,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38193,7 +38193,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3066724.763757274</v>
+        <v>3059707.748865563</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>130.4588318996847</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>125.7220754819249</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>43.31785343913981</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>223.1498336210773</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>187.2904373327646</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>117.3399053404223</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1056,28 +1056,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.5166709741984</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>87.87673964201173</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,10 +1150,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>212.0685156039286</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>43.95772706123071</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1296,22 +1296,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>59.72683757586851</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>28.38068413028077</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722613</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,13 +1587,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>65.65483501017442</v>
       </c>
       <c r="X13" t="n">
-        <v>109.1197864434571</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1618,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T16" t="n">
-        <v>39.28557702533126</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>49.12791688416459</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>47.39538521061682</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>127.5160634026685</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>86.80469552384591</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>122.65197883716</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>228.2066444308516</v>
       </c>
       <c r="W34" t="n">
-        <v>269.5201072002386</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3322,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>51.33757195520871</v>
+        <v>100.6429089205996</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3663,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>28.30910107930799</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>277.3189580421779</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3906,10 +3906,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>15.98360398438614</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>194.8026695426855</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.3176863881980898</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1865.381229508782</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="C2" t="n">
-        <v>1496.41871256837</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="D2" t="n">
-        <v>1138.15301396162</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>752.3647613633757</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X2" t="n">
-        <v>2642.120401548716</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="Y2" t="n">
-        <v>2251.981069572904</v>
+        <v>1881.118241157406</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>684.3735766921516</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>684.3735766921516</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>684.3735766921516</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>684.3735766921516</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X4" t="n">
-        <v>456.3840257941342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1141.749745823171</v>
+        <v>1154.883827626213</v>
       </c>
       <c r="C5" t="n">
-        <v>1141.749745823171</v>
+        <v>1154.883827626213</v>
       </c>
       <c r="D5" t="n">
-        <v>1141.749745823171</v>
+        <v>1154.883827626213</v>
       </c>
       <c r="E5" t="n">
-        <v>1141.749745823171</v>
+        <v>1154.883827626213</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>743.8979228366054</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>325.9341147347923</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
@@ -4579,16 +4579,16 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4600,19 +4600,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="W5" t="n">
-        <v>1528.349585887292</v>
+        <v>1528.349585887293</v>
       </c>
       <c r="X5" t="n">
-        <v>1528.349585887292</v>
+        <v>1154.883827626213</v>
       </c>
       <c r="Y5" t="n">
-        <v>1528.349585887292</v>
+        <v>1154.883827626213</v>
       </c>
     </row>
     <row r="6">
@@ -4643,25 +4643,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>247.5125998356232</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>247.5125998356232</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D7" t="n">
-        <v>247.5125998356232</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>390.19300101686</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>232.4446284493901</v>
       </c>
       <c r="I7" t="n">
         <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>247.5125998356232</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>247.5125998356232</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>247.5125998356232</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>247.5125998356232</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>247.5125998356232</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>247.5125998356232</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1097.103316533935</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C8" t="n">
-        <v>1097.103316533935</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D8" t="n">
-        <v>1097.103316533935</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>1097.103316533935</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>686.1174117443277</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>268.1536036425146</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2652.747346511929</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834948</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="W8" t="n">
-        <v>2247.308246834948</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="X8" t="n">
-        <v>1873.842488573869</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="Y8" t="n">
-        <v>1483.703156598057</v>
+        <v>2476.569858826099</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>380.6275373157412</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C10" t="n">
-        <v>211.6913543878343</v>
+        <v>559.1928012785274</v>
       </c>
       <c r="D10" t="n">
-        <v>211.6913543878343</v>
+        <v>409.0761618661917</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>261.1630682837986</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>114.2731207858882</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>114.2731207858882</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858882</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>670.0447073527018</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>670.0447073527018</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>670.0447073527018</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>380.6275373157412</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X10" t="n">
-        <v>380.6275373157412</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y10" t="n">
-        <v>380.6275373157412</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5044,7 +5044,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5068,25 +5068,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5126,16 +5126,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>675.2581065529675</v>
+        <v>729.1316371486756</v>
       </c>
       <c r="C13" t="n">
-        <v>675.2581065529675</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D13" t="n">
-        <v>675.2581065529675</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E13" t="n">
-        <v>527.3450129705744</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>1187.92115703528</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W13" t="n">
-        <v>1187.92115703528</v>
+        <v>1177.913767190223</v>
       </c>
       <c r="X13" t="n">
-        <v>1077.699150526737</v>
+        <v>949.9242162922058</v>
       </c>
       <c r="Y13" t="n">
-        <v>856.9065713832073</v>
+        <v>729.1316371486756</v>
       </c>
     </row>
     <row r="14">
@@ -5266,7 +5266,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5278,7 +5278,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>677.4616523829102</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>677.4616523829102</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T16" t="n">
-        <v>1148.238755999592</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>859.1101172131499</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>859.1101172131499</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>859.1101172131499</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>859.1101172131499</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>859.1101172131499</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5497,43 +5497,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5594,19 +5594,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.043068977053</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1999.905696641086</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
         <v>2331.418122136705</v>
@@ -5700,19 +5700,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
         <v>97.21709146028584</v>
@@ -5734,28 +5734,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5764,7 +5764,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5831,22 +5831,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5937,19 +5937,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
         <v>97.21709146028584</v>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6068,7 +6068,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
         <v>287.7778528277033</v>
@@ -6077,7 +6077,7 @@
         <v>901.674922584592</v>
       </c>
       <c r="M24" t="n">
-        <v>1208.995055864553</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N24" t="n">
         <v>1538.857683528586</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>315.0165716093184</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="C25" t="n">
-        <v>265.3924131404652</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>1451.042144082532</v>
       </c>
       <c r="V25" t="n">
-        <v>786.0822064765186</v>
+        <v>1196.357655876645</v>
       </c>
       <c r="W25" t="n">
-        <v>496.665036439558</v>
+        <v>1196.357655876645</v>
       </c>
       <c r="X25" t="n">
-        <v>496.665036439558</v>
+        <v>968.3681049786276</v>
       </c>
       <c r="Y25" t="n">
-        <v>496.665036439558</v>
+        <v>747.5755258350974</v>
       </c>
     </row>
     <row r="26">
@@ -6208,22 +6208,22 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
@@ -6235,7 +6235,7 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6311,16 +6311,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1196.088769018224</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2317.834075963124</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>241.9805482336712</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C28" t="n">
-        <v>241.9805482336712</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>241.9805482336712</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>241.9805482336712</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>241.9805482336712</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1259.037062672588</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>1259.037062672588</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706318</v>
+        <v>1004.352574466701</v>
       </c>
       <c r="W28" t="n">
-        <v>241.9805482336712</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="X28" t="n">
-        <v>241.9805482336712</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y28" t="n">
-        <v>241.9805482336712</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6451,22 +6451,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,13 +6481,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6551,19 +6551,19 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4391.604587469459</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>4222.668404541552</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>4072.551765129216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>3924.638671546823</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3777.748724048913</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3609.573402368733</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4660.934562929846</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>4573.253052299699</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>4573.253052299699</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>4573.253052299699</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W31" t="n">
-        <v>4573.253052299699</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X31" t="n">
-        <v>4573.253052299699</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
-        <v>4573.253052299699</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3739.626168222635</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C34" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4749.779469576118</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>4749.779469576118</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>4460.650830789676</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>4460.650830789676</v>
+        <v>555.5704444251534</v>
       </c>
       <c r="W34" t="n">
-        <v>4188.408298264182</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="X34" t="n">
-        <v>3960.418747366165</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y34" t="n">
-        <v>3739.626168222635</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="35">
@@ -6949,7 +6949,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6973,7 +6973,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
@@ -7031,13 +7031,13 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>266.1532743881928</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1009.867621687013</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>1009.867621687013</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W37" t="n">
-        <v>720.4504516500522</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X37" t="n">
-        <v>668.5943183619626</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y37" t="n">
-        <v>447.8017392184324</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="38">
@@ -7153,31 +7153,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7186,13 +7186,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7259,16 +7259,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>441.900558318119</v>
+        <v>674.6944526764913</v>
       </c>
       <c r="C40" t="n">
-        <v>441.900558318119</v>
+        <v>505.7582697485844</v>
       </c>
       <c r="D40" t="n">
-        <v>441.900558318119</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E40" t="n">
-        <v>293.9874647357258</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7362,22 +7362,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>1218.796110919339</v>
       </c>
       <c r="V40" t="n">
-        <v>731.3177283550796</v>
+        <v>964.1116227134519</v>
       </c>
       <c r="W40" t="n">
-        <v>441.900558318119</v>
+        <v>674.6944526764913</v>
       </c>
       <c r="X40" t="n">
-        <v>441.900558318119</v>
+        <v>674.6944526764913</v>
       </c>
       <c r="Y40" t="n">
-        <v>441.900558318119</v>
+        <v>674.6944526764913</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7402,46 +7402,46 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7456,7 +7456,7 @@
         <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7496,16 +7496,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>244.1070389581962</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C43" t="n">
-        <v>244.1070389581962</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D43" t="n">
-        <v>244.1070389581962</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E43" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1482.771216028219</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1258.985800817725</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>969.8571620312833</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>715.1726738253965</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>425.7555037884359</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>425.7555037884359</v>
+        <v>245.130185042679</v>
       </c>
       <c r="Y43" t="n">
-        <v>425.7555037884359</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="44">
@@ -7642,16 +7642,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7660,13 +7660,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7739,16 +7739,16 @@
         <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>415.509052552801</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>415.509052552801</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1187.92115703528</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V46" t="n">
-        <v>933.2366688293931</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W46" t="n">
-        <v>643.8194987924326</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>415.8299478944152</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>415.509052552801</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,13 +8069,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093296</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8774,19 +8774,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>124.3400780863232</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9248,16 +9248,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9412,7 +9412,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119847</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>124.3400780863232</v>
+        <v>124.3400780863231</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10132,7 +10132,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10603,7 +10603,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11387,19 +11387,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>277.671796620807</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23475,13 +23475,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>220.8681633264166</v>
       </c>
       <c r="X13" t="n">
-        <v>116.58986894558</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T16" t="n">
-        <v>182.261984033058</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>118.1189042144632</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24414,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>238.8419671879605</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>23.17774625772611</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>94.03149765572073</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>134.7428655345433</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>103.0576765518772</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25095,7 +25095,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>23.93099889297639</v>
       </c>
       <c r="W34" t="n">
-        <v>17.00289113635245</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>174.3720834338284</v>
+        <v>125.0667464684376</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>117.1119469436233</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,10 +25602,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>8.91839435639946</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25794,10 +25794,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>181.9372059992171</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>30.9069858463516</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26028,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.2669669638967</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>751919.5123764882</v>
+        <v>751919.5123764881</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>751919.512376488</v>
+        <v>751919.5123764881</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>751919.5123764881</v>
+        <v>751919.5123764882</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>751919.5123764882</v>
+        <v>751919.512376488</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>751919.512376488</v>
+        <v>751919.5123764881</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>751919.512376488</v>
+        <v>751919.5123764881</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>751919.5123764882</v>
+        <v>751919.5123764881</v>
       </c>
     </row>
   </sheetData>
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.460138033</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="E2" t="n">
-        <v>645197.9485672195</v>
+        <v>645197.9485672197</v>
       </c>
       <c r="F2" t="n">
-        <v>645197.9485672192</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="G2" t="n">
+        <v>645197.9485672194</v>
+      </c>
+      <c r="H2" t="n">
         <v>645197.9485672197</v>
       </c>
-      <c r="H2" t="n">
-        <v>645197.948567219</v>
-      </c>
       <c r="I2" t="n">
+        <v>645197.9485672198</v>
+      </c>
+      <c r="J2" t="n">
         <v>645197.9485672197</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>645197.9485672194</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645197.94856722</v>
       </c>
       <c r="L2" t="n">
         <v>645197.9485672194</v>
@@ -26349,10 +26349,10 @@
         <v>645197.9485672194</v>
       </c>
       <c r="N2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672199</v>
       </c>
       <c r="O2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672197</v>
       </c>
       <c r="P2" t="n">
         <v>645197.9485672194</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,19 +26420,19 @@
         <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>174490.7773218262</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="D4" t="n">
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230235</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="H4" t="n">
         <v>29303.54555230233</v>
@@ -26444,10 +26444,10 @@
         <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230235</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
         <v>29303.54555230233</v>
@@ -26456,10 +26456,10 @@
         <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.5455523024</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26472,13 +26472,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26508,10 +26508,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-169958.2744617466</v>
+        <v>-169958.2744617468</v>
       </c>
       <c r="C6" t="n">
-        <v>420009.6047527974</v>
+        <v>420009.6047527977</v>
       </c>
       <c r="D6" t="n">
-        <v>420009.6047527979</v>
+        <v>420009.6047527977</v>
       </c>
       <c r="E6" t="n">
-        <v>-1252.959410695592</v>
+        <v>-2227.550670416957</v>
       </c>
       <c r="F6" t="n">
-        <v>523907.0770662003</v>
+        <v>522932.4858064789</v>
       </c>
       <c r="G6" t="n">
-        <v>523907.0770662008</v>
+        <v>522932.4858064789</v>
       </c>
       <c r="H6" t="n">
-        <v>523907.0770662</v>
+        <v>522932.4858064791</v>
       </c>
       <c r="I6" t="n">
-        <v>523907.0770662008</v>
+        <v>522932.4858064791</v>
       </c>
       <c r="J6" t="n">
-        <v>347483.8578736076</v>
+        <v>346509.2666138861</v>
       </c>
       <c r="K6" t="n">
-        <v>523907.077066201</v>
+        <v>522932.4858064789</v>
       </c>
       <c r="L6" t="n">
-        <v>523907.0770662004</v>
+        <v>522932.4858064788</v>
       </c>
       <c r="M6" t="n">
-        <v>389106.0618323633</v>
+        <v>388131.4705726417</v>
       </c>
       <c r="N6" t="n">
-        <v>523907.0770662004</v>
+        <v>522932.4858064792</v>
       </c>
       <c r="O6" t="n">
-        <v>523907.0770662004</v>
+        <v>522932.485806479</v>
       </c>
       <c r="P6" t="n">
-        <v>523907.0770662004</v>
+        <v>522932.4858064788</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26749,22 +26749,22 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>224.2242097209983</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>281.1539702597865</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>181.7172520189445</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>63.3731647155137</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27627,13 +27627,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>219.5856084089469</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>206.5828674239349</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27776,25 +27776,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>3.448950818139849</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>137.1583658160725</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>111.8542571604286</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>10.520675513581</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28016,25 +28016,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>75.23878421646972</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28064,7 +28064,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>196.6544213278035</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>5.15258523678529e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -30528,7 +30528,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.350599632132798e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,13 +35260,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856235</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35494,19 +35494,19 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q12" t="n">
         <v>88.0130327850741</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,16 +36123,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081124</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
         <v>713.1546070951472</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36208,16 +36208,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879392</v>
@@ -36445,19 +36445,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
         <v>331.4334930178478</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36679,7 +36679,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>526.9295015768312</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
@@ -36691,7 +36691,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36852,10 +36852,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>560.035498861915</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
         <v>59.82538970349808</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37323,7 +37323,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502048</v>
@@ -37399,16 +37399,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>560.035498861915</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37627,7 +37627,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
@@ -37639,7 +37639,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37800,7 +37800,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
         <v>59.82538970349808</v>
@@ -37864,7 +37864,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37876,7 +37876,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38037,7 +38037,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
         <v>59.82538970349808</v>
@@ -38107,19 +38107,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>610.8663700188198</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3059707.748865563</v>
+        <v>3064647.011714594</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>130.4588318996847</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>246.9035352307518</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>223.1498336210773</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>61.28737103419895</v>
       </c>
       <c r="H5" t="n">
-        <v>117.3399053404223</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>101.7806877295492</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1068,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.5166709741984</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>242.5156439484333</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>43.95772706123071</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>59.72683757586851</v>
+        <v>14.52687838733151</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>112.463549163634</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>65.65483501017442</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1824,13 +1824,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>57.98484865785566</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>47.39538521061682</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>81.90355835744658</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>103.4697082097224</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>127.5160634026685</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>24.01153903325422</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>122.65197883716</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3246,13 +3246,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>228.2066444308516</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>100.6429089205996</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3189580421779</v>
+        <v>114.9309043193593</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>132.314313370251</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>194.8026695426855</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1881.118241157406</v>
+        <v>1580.775345511217</v>
       </c>
       <c r="C2" t="n">
-        <v>1881.118241157406</v>
+        <v>1580.775345511217</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1580.775345511217</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1194.987092912972</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>784.0011881233647</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.118241157406</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>1881.118241157406</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X2" t="n">
-        <v>1881.118241157406</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y2" t="n">
-        <v>1881.118241157406</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="3">
@@ -4409,16 +4409,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4494,37 +4494,37 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
         <v>502.7251118619119</v>
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1154.883827626213</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="C5" t="n">
-        <v>1154.883827626213</v>
+        <v>1270.889273203047</v>
       </c>
       <c r="D5" t="n">
-        <v>1154.883827626213</v>
+        <v>912.6235745962961</v>
       </c>
       <c r="E5" t="n">
-        <v>1154.883827626213</v>
+        <v>526.8353219980518</v>
       </c>
       <c r="F5" t="n">
-        <v>743.8979228366054</v>
+        <v>115.8494172084442</v>
       </c>
       <c r="G5" t="n">
-        <v>325.9341147347923</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036446</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500978</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157407</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>1528.349585887293</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>1154.883827626213</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y5" t="n">
-        <v>1154.883827626213</v>
+        <v>1639.851790143458</v>
       </c>
     </row>
     <row r="6">
@@ -4646,13 +4646,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>325.6879402326645</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785276</v>
+        <v>156.7517573047575</v>
       </c>
       <c r="D7" t="n">
-        <v>559.1928012785276</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>559.1928012785276</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>559.1928012785276</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>390.19300101686</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>232.4446284493901</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036446</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>507.3364050629042</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2476.569858826099</v>
+        <v>2310.549250954101</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>1583.321035406939</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>1197.532782808694</v>
       </c>
       <c r="F8" t="n">
         <v>952.5674858910851</v>
@@ -4804,13 +4804,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2652.747346511929</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2476.569858826099</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2476.569858826099</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2476.569858826099</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2476.569858826099</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>2476.569858826099</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X8" t="n">
-        <v>2476.569858826099</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y8" t="n">
-        <v>2476.569858826099</v>
+        <v>2697.149091018223</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4959,7 +4959,7 @@
         <v>114.2731207858882</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036446</v>
@@ -5026,25 +5026,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5068,22 +5068,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614725</v>
@@ -5123,22 +5123,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.995055864553</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N12" t="n">
-        <v>1538.857683528586</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2208.321444831246</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>729.1316371486756</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="C13" t="n">
-        <v>560.1954542207687</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D13" t="n">
-        <v>560.1954542207687</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
         <v>265.3924131404652</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1185.396715863723</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>930.7122276578364</v>
       </c>
       <c r="W13" t="n">
-        <v>1177.913767190223</v>
+        <v>641.2950576208757</v>
       </c>
       <c r="X13" t="n">
-        <v>949.9242162922058</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="Y13" t="n">
-        <v>729.1316371486756</v>
+        <v>413.3055067228584</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823787</v>
@@ -5296,16 +5296,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>545.8631874464247</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>727.5116522766644</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>727.5116522766644</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>727.5116522766644</v>
       </c>
     </row>
     <row r="17">
@@ -5491,58 +5491,58 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5731,25 +5731,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
@@ -5761,22 +5761,22 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5785,16 +5785,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5828,7 +5828,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5837,19 +5837,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2410.070939158951</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5940,22 +5940,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5968,67 +5968,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6065,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>565.9270610048577</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C25" t="n">
-        <v>565.9270610048577</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D25" t="n">
-        <v>415.8104215925219</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E25" t="n">
-        <v>415.8104215925219</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925219</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6177,22 +6177,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1451.042144082532</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>1196.357655876645</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>1196.357655876645</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>968.3681049786276</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="Y25" t="n">
-        <v>747.5755258350974</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
     <row r="26">
@@ -6205,31 +6205,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6247,28 +6247,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6281,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F27" t="n">
         <v>358.2718071316295</v>
@@ -6302,31 +6302,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6341,7 +6341,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W27" t="n">
         <v>1571.258395043133</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>266.1532743881928</v>
+        <v>613.8011874802282</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>613.8011874802282</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>463.6845480678925</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>463.6845480678925</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>463.6845480678925</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1259.037062672588</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1259.037062672588</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>1004.352574466701</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W28" t="n">
-        <v>714.9354044297402</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X28" t="n">
-        <v>486.9458535317228</v>
+        <v>1016.242231453998</v>
       </c>
       <c r="Y28" t="n">
-        <v>266.1532743881928</v>
+        <v>795.449652310468</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6487,28 +6487,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609664</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V31" t="n">
-        <v>731.3177283550796</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W31" t="n">
-        <v>441.900558318119</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X31" t="n">
-        <v>318.0096706038159</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="32">
@@ -6679,22 +6679,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6703,7 +6703,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6712,13 +6712,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>555.5704444251534</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>266.1532743881928</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6937,13 +6937,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>1209.787631771461</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>920.3704617344999</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>818.7109577742983</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>597.9183786307682</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7162,25 +7162,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>674.6944526764913</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>505.7582697485844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U40" t="n">
-        <v>1218.796110919339</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V40" t="n">
-        <v>964.1116227134519</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W40" t="n">
-        <v>674.6944526764913</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X40" t="n">
-        <v>674.6944526764913</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y40" t="n">
-        <v>674.6944526764913</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="41">
@@ -7405,7 +7405,7 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028587</v>
@@ -7414,10 +7414,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515098</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>245.130185042679</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="C43" t="n">
-        <v>245.130185042679</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="D43" t="n">
-        <v>245.130185042679</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028587</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>731.3177283550796</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W43" t="n">
-        <v>441.900558318119</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X43" t="n">
-        <v>245.130185042679</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y43" t="n">
-        <v>245.130185042679</v>
+        <v>699.5778825909698</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7645,16 +7645,16 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7681,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011507</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952638</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028587</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
   </sheetData>
@@ -8057,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028825</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627889</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,25 +8771,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>96.03744927814705</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>124.3400780863232</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>124.3400780863231</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298479</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9965,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>91.23759968302124</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928333</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>173.7738032349434</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>220.8681633264166</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>228.5381496787354</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,22 +24417,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>238.8419671879605</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>143.8060970315906</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>63.02386025365522</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>94.03149765572073</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>262.2258133653231</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>103.0576765518772</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>23.93099889297639</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>125.0667464684376</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25569,7 +25569,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -25605,7 +25605,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>8.91839435639946</v>
+        <v>171.306448079218</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>47.51766681168633</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25839,22 +25839,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>30.9069858463516</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>61.34209567542518</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>751919.5123764881</v>
+        <v>751919.512376488</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>751919.512376488</v>
+        <v>751919.5123764881</v>
       </c>
     </row>
     <row r="13">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="C2" t="n">
         <v>677359.4601380334</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380333</v>
       </c>
       <c r="E2" t="n">
+        <v>645197.9485672192</v>
+      </c>
+      <c r="F2" t="n">
+        <v>645197.9485672192</v>
+      </c>
+      <c r="G2" t="n">
+        <v>645197.9485672191</v>
+      </c>
+      <c r="H2" t="n">
+        <v>645197.9485672194</v>
+      </c>
+      <c r="I2" t="n">
+        <v>645197.9485672193</v>
+      </c>
+      <c r="J2" t="n">
+        <v>645197.9485672195</v>
+      </c>
+      <c r="K2" t="n">
         <v>645197.9485672197</v>
-      </c>
-      <c r="F2" t="n">
-        <v>645197.9485672194</v>
-      </c>
-      <c r="G2" t="n">
-        <v>645197.9485672194</v>
-      </c>
-      <c r="H2" t="n">
-        <v>645197.9485672197</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645197.9485672198</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645197.9485672197</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645197.9485672194</v>
       </c>
       <c r="L2" t="n">
         <v>645197.9485672194</v>
       </c>
       <c r="M2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672195</v>
       </c>
       <c r="N2" t="n">
-        <v>645197.9485672199</v>
+        <v>645197.9485672198</v>
       </c>
       <c r="O2" t="n">
-        <v>645197.9485672197</v>
+        <v>645197.9485672198</v>
       </c>
       <c r="P2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672198</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
         <v>174490.7773218262</v>
@@ -26429,19 +26429,19 @@
         <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230229</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="I4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230235</v>
       </c>
       <c r="K4" t="n">
         <v>29303.54555230233</v>
@@ -26456,7 +26456,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
         <v>29303.54555230233</v>
@@ -26493,19 +26493,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-169958.2744617468</v>
+        <v>-169958.2744617466</v>
       </c>
       <c r="C6" t="n">
         <v>420009.6047527977</v>
       </c>
       <c r="D6" t="n">
-        <v>420009.6047527977</v>
+        <v>420009.6047527976</v>
       </c>
       <c r="E6" t="n">
-        <v>-2227.550670416957</v>
+        <v>-1350.418536667945</v>
       </c>
       <c r="F6" t="n">
-        <v>522932.4858064789</v>
+        <v>523809.6179402281</v>
       </c>
       <c r="G6" t="n">
-        <v>522932.4858064789</v>
+        <v>523809.6179402279</v>
       </c>
       <c r="H6" t="n">
-        <v>522932.4858064791</v>
+        <v>523809.6179402283</v>
       </c>
       <c r="I6" t="n">
-        <v>522932.4858064791</v>
+        <v>523809.6179402281</v>
       </c>
       <c r="J6" t="n">
-        <v>346509.2666138861</v>
+        <v>347386.3987476354</v>
       </c>
       <c r="K6" t="n">
-        <v>522932.4858064789</v>
+        <v>523809.6179402286</v>
       </c>
       <c r="L6" t="n">
-        <v>522932.4858064788</v>
+        <v>523809.6179402284</v>
       </c>
       <c r="M6" t="n">
-        <v>388131.4705726417</v>
+        <v>389008.6027063913</v>
       </c>
       <c r="N6" t="n">
-        <v>522932.4858064792</v>
+        <v>523809.6179402286</v>
       </c>
       <c r="O6" t="n">
-        <v>522932.485806479</v>
+        <v>523809.6179402286</v>
       </c>
       <c r="P6" t="n">
-        <v>522932.4858064788</v>
+        <v>523809.6179402286</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26749,16 +26749,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26767,19 +26767,19 @@
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26813,7 +26813,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>224.2242097209983</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>166.8806347900432</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>63.3731647155137</v>
+        <v>63.37316471551392</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>352.496798986596</v>
       </c>
       <c r="H5" t="n">
-        <v>206.5828674239349</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>46.8347852886632</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27788,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>3.448950818139849</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>164.3604017932781</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>10.520675513581</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>75.23878421646972</v>
+        <v>120.4387434050067</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,7 +35260,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>429.2320226761599</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>331.4334930178478</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,22 +36205,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>215.6591577951388</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>331.4334930178478</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970350042</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
@@ -36685,19 +36685,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>373.6013019241294</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
